--- a/Benchmark/OEQ_Benchmark/size.xlsx
+++ b/Benchmark/OEQ_Benchmark/size.xlsx
@@ -25,322 +25,322 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>size_0.png</t>
-  </si>
-  <si>
-    <t>size_1.png</t>
-  </si>
-  <si>
-    <t>size_2.png</t>
-  </si>
-  <si>
-    <t>size_3.png</t>
-  </si>
-  <si>
-    <t>size_4.png</t>
-  </si>
-  <si>
-    <t>size_5.png</t>
-  </si>
-  <si>
-    <t>size_6.png</t>
-  </si>
-  <si>
-    <t>size_7.png</t>
-  </si>
-  <si>
-    <t>size_8.png</t>
-  </si>
-  <si>
-    <t>size_9.png</t>
-  </si>
-  <si>
-    <t>size_10.png</t>
-  </si>
-  <si>
-    <t>size_11.png</t>
-  </si>
-  <si>
-    <t>size_12.png</t>
-  </si>
-  <si>
-    <t>size_13.png</t>
-  </si>
-  <si>
-    <t>size_14.png</t>
-  </si>
-  <si>
-    <t>size_15.png</t>
-  </si>
-  <si>
-    <t>size_16.png</t>
-  </si>
-  <si>
-    <t>size_17.png</t>
-  </si>
-  <si>
-    <t>size_18.png</t>
-  </si>
-  <si>
-    <t>size_19.png</t>
-  </si>
-  <si>
-    <t>size_20.png</t>
-  </si>
-  <si>
-    <t>size_21.png</t>
-  </si>
-  <si>
-    <t>size_22.png</t>
-  </si>
-  <si>
-    <t>size_23.png</t>
-  </si>
-  <si>
-    <t>size_24.png</t>
-  </si>
-  <si>
-    <t>size_25.png</t>
-  </si>
-  <si>
-    <t>size_26.png</t>
-  </si>
-  <si>
-    <t>size_27.png</t>
-  </si>
-  <si>
-    <t>size_28.png</t>
-  </si>
-  <si>
-    <t>size_29.png</t>
-  </si>
-  <si>
-    <t>size_30.png</t>
-  </si>
-  <si>
-    <t>size_31.png</t>
-  </si>
-  <si>
-    <t>size_32.png</t>
-  </si>
-  <si>
-    <t>size_33.png</t>
-  </si>
-  <si>
-    <t>size_34.png</t>
-  </si>
-  <si>
-    <t>size_35.png</t>
-  </si>
-  <si>
-    <t>size_36.png</t>
-  </si>
-  <si>
-    <t>size_37.png</t>
-  </si>
-  <si>
-    <t>size_38.png</t>
-  </si>
-  <si>
-    <t>size_39.png</t>
-  </si>
-  <si>
-    <t>size_40.png</t>
-  </si>
-  <si>
-    <t>size_41.png</t>
-  </si>
-  <si>
-    <t>size_42.png</t>
-  </si>
-  <si>
-    <t>size_43.png</t>
-  </si>
-  <si>
-    <t>size_44.png</t>
-  </si>
-  <si>
-    <t>size_45.png</t>
-  </si>
-  <si>
-    <t>size_46.png</t>
-  </si>
-  <si>
-    <t>size_47.png</t>
-  </si>
-  <si>
-    <t>size_48.png</t>
-  </si>
-  <si>
-    <t>size_49.png</t>
-  </si>
-  <si>
-    <t>size_50.png</t>
-  </si>
-  <si>
-    <t>size_51.png</t>
-  </si>
-  <si>
-    <t>size_52.png</t>
-  </si>
-  <si>
-    <t>size_53.png</t>
-  </si>
-  <si>
-    <t>size_54.png</t>
-  </si>
-  <si>
-    <t>size_55.png</t>
-  </si>
-  <si>
-    <t>size_56.png</t>
-  </si>
-  <si>
-    <t>size_57.png</t>
-  </si>
-  <si>
-    <t>size_58.png</t>
-  </si>
-  <si>
-    <t>size_59.png</t>
-  </si>
-  <si>
-    <t>size_60.png</t>
-  </si>
-  <si>
-    <t>size_61.png</t>
-  </si>
-  <si>
-    <t>size_62.png</t>
-  </si>
-  <si>
-    <t>size_63.png</t>
-  </si>
-  <si>
-    <t>size_64.png</t>
-  </si>
-  <si>
-    <t>size_65.png</t>
-  </si>
-  <si>
-    <t>size_66.png</t>
-  </si>
-  <si>
-    <t>size_67.png</t>
-  </si>
-  <si>
-    <t>size_68.png</t>
-  </si>
-  <si>
-    <t>size_69.png</t>
-  </si>
-  <si>
-    <t>size_70.png</t>
-  </si>
-  <si>
-    <t>size_71.png</t>
-  </si>
-  <si>
-    <t>size_72.png</t>
-  </si>
-  <si>
-    <t>size_73.png</t>
-  </si>
-  <si>
-    <t>size_74.png</t>
-  </si>
-  <si>
-    <t>size_75.png</t>
-  </si>
-  <si>
-    <t>size_76.png</t>
-  </si>
-  <si>
-    <t>size_77.png</t>
-  </si>
-  <si>
-    <t>size_78.png</t>
-  </si>
-  <si>
-    <t>size_79.png</t>
-  </si>
-  <si>
-    <t>size_80.png</t>
-  </si>
-  <si>
-    <t>size_81.png</t>
-  </si>
-  <si>
-    <t>size_82.png</t>
-  </si>
-  <si>
-    <t>size_83.png</t>
-  </si>
-  <si>
-    <t>size_84.png</t>
-  </si>
-  <si>
-    <t>size_85.png</t>
-  </si>
-  <si>
-    <t>size_86.png</t>
-  </si>
-  <si>
-    <t>size_87.png</t>
-  </si>
-  <si>
-    <t>size_88.png</t>
-  </si>
-  <si>
-    <t>size_89.png</t>
-  </si>
-  <si>
-    <t>size_90.png</t>
-  </si>
-  <si>
-    <t>size_91.png</t>
-  </si>
-  <si>
-    <t>size_92.png</t>
-  </si>
-  <si>
-    <t>size_93.png</t>
-  </si>
-  <si>
-    <t>size_94.png</t>
-  </si>
-  <si>
-    <t>size_95.png</t>
-  </si>
-  <si>
-    <t>size_96.png</t>
-  </si>
-  <si>
-    <t>size_97.png</t>
-  </si>
-  <si>
-    <t>size_98.png</t>
-  </si>
-  <si>
-    <t>size_99.png</t>
-  </si>
-  <si>
-    <t>size_100.png</t>
-  </si>
-  <si>
-    <t>size_101.png</t>
-  </si>
-  <si>
-    <t>size_102.png</t>
-  </si>
-  <si>
-    <t>size_103.png</t>
-  </si>
-  <si>
-    <t>size_104.png</t>
-  </si>
-  <si>
-    <t>size_105.png</t>
+    <t>size/size_0.png</t>
+  </si>
+  <si>
+    <t>size/size_1.png</t>
+  </si>
+  <si>
+    <t>size/size_2.png</t>
+  </si>
+  <si>
+    <t>size/size_3.png</t>
+  </si>
+  <si>
+    <t>size/size_4.png</t>
+  </si>
+  <si>
+    <t>size/size_5.png</t>
+  </si>
+  <si>
+    <t>size/size_6.png</t>
+  </si>
+  <si>
+    <t>size/size_7.png</t>
+  </si>
+  <si>
+    <t>size/size_8.png</t>
+  </si>
+  <si>
+    <t>size/size_9.png</t>
+  </si>
+  <si>
+    <t>size/size_10.png</t>
+  </si>
+  <si>
+    <t>size/size_11.png</t>
+  </si>
+  <si>
+    <t>size/size_12.png</t>
+  </si>
+  <si>
+    <t>size/size_13.png</t>
+  </si>
+  <si>
+    <t>size/size_14.png</t>
+  </si>
+  <si>
+    <t>size/size_15.png</t>
+  </si>
+  <si>
+    <t>size/size_16.png</t>
+  </si>
+  <si>
+    <t>size/size_17.png</t>
+  </si>
+  <si>
+    <t>size/size_18.png</t>
+  </si>
+  <si>
+    <t>size/size_19.png</t>
+  </si>
+  <si>
+    <t>size/size_20.png</t>
+  </si>
+  <si>
+    <t>size/size_21.png</t>
+  </si>
+  <si>
+    <t>size/size_22.png</t>
+  </si>
+  <si>
+    <t>size/size_23.png</t>
+  </si>
+  <si>
+    <t>size/size_24.png</t>
+  </si>
+  <si>
+    <t>size/size_25.png</t>
+  </si>
+  <si>
+    <t>size/size_26.png</t>
+  </si>
+  <si>
+    <t>size/size_27.png</t>
+  </si>
+  <si>
+    <t>size/size_28.png</t>
+  </si>
+  <si>
+    <t>size/size_29.png</t>
+  </si>
+  <si>
+    <t>size/size_30.png</t>
+  </si>
+  <si>
+    <t>size/size_31.png</t>
+  </si>
+  <si>
+    <t>size/size_32.png</t>
+  </si>
+  <si>
+    <t>size/size_33.png</t>
+  </si>
+  <si>
+    <t>size/size_34.png</t>
+  </si>
+  <si>
+    <t>size/size_35.png</t>
+  </si>
+  <si>
+    <t>size/size_36.png</t>
+  </si>
+  <si>
+    <t>size/size_37.png</t>
+  </si>
+  <si>
+    <t>size/size_38.png</t>
+  </si>
+  <si>
+    <t>size/size_39.png</t>
+  </si>
+  <si>
+    <t>size/size_40.png</t>
+  </si>
+  <si>
+    <t>size/size_41.png</t>
+  </si>
+  <si>
+    <t>size/size_42.png</t>
+  </si>
+  <si>
+    <t>size/size_43.png</t>
+  </si>
+  <si>
+    <t>size/size_44.png</t>
+  </si>
+  <si>
+    <t>size/size_45.png</t>
+  </si>
+  <si>
+    <t>size/size_46.png</t>
+  </si>
+  <si>
+    <t>size/size_47.png</t>
+  </si>
+  <si>
+    <t>size/size_48.png</t>
+  </si>
+  <si>
+    <t>size/size_49.png</t>
+  </si>
+  <si>
+    <t>size/size_50.png</t>
+  </si>
+  <si>
+    <t>size/size_51.png</t>
+  </si>
+  <si>
+    <t>size/size_52.png</t>
+  </si>
+  <si>
+    <t>size/size_53.png</t>
+  </si>
+  <si>
+    <t>size/size_54.png</t>
+  </si>
+  <si>
+    <t>size/size_55.png</t>
+  </si>
+  <si>
+    <t>size/size_56.png</t>
+  </si>
+  <si>
+    <t>size/size_57.png</t>
+  </si>
+  <si>
+    <t>size/size_58.png</t>
+  </si>
+  <si>
+    <t>size/size_59.png</t>
+  </si>
+  <si>
+    <t>size/size_60.png</t>
+  </si>
+  <si>
+    <t>size/size_61.png</t>
+  </si>
+  <si>
+    <t>size/size_62.png</t>
+  </si>
+  <si>
+    <t>size/size_63.png</t>
+  </si>
+  <si>
+    <t>size/size_64.png</t>
+  </si>
+  <si>
+    <t>size/size_65.png</t>
+  </si>
+  <si>
+    <t>size/size_66.png</t>
+  </si>
+  <si>
+    <t>size/size_67.png</t>
+  </si>
+  <si>
+    <t>size/size_68.png</t>
+  </si>
+  <si>
+    <t>size/size_69.png</t>
+  </si>
+  <si>
+    <t>size/size_70.png</t>
+  </si>
+  <si>
+    <t>size/size_71.png</t>
+  </si>
+  <si>
+    <t>size/size_72.png</t>
+  </si>
+  <si>
+    <t>size/size_73.png</t>
+  </si>
+  <si>
+    <t>size/size_74.png</t>
+  </si>
+  <si>
+    <t>size/size_75.png</t>
+  </si>
+  <si>
+    <t>size/size_76.png</t>
+  </si>
+  <si>
+    <t>size/size_77.png</t>
+  </si>
+  <si>
+    <t>size/size_78.png</t>
+  </si>
+  <si>
+    <t>size/size_79.png</t>
+  </si>
+  <si>
+    <t>size/size_80.png</t>
+  </si>
+  <si>
+    <t>size/size_81.png</t>
+  </si>
+  <si>
+    <t>size/size_82.png</t>
+  </si>
+  <si>
+    <t>size/size_83.png</t>
+  </si>
+  <si>
+    <t>size/size_84.png</t>
+  </si>
+  <si>
+    <t>size/size_85.png</t>
+  </si>
+  <si>
+    <t>size/size_86.png</t>
+  </si>
+  <si>
+    <t>size/size_87.png</t>
+  </si>
+  <si>
+    <t>size/size_88.png</t>
+  </si>
+  <si>
+    <t>size/size_89.png</t>
+  </si>
+  <si>
+    <t>size/size_90.png</t>
+  </si>
+  <si>
+    <t>size/size_91.png</t>
+  </si>
+  <si>
+    <t>size/size_92.png</t>
+  </si>
+  <si>
+    <t>size/size_93.png</t>
+  </si>
+  <si>
+    <t>size/size_94.png</t>
+  </si>
+  <si>
+    <t>size/size_95.png</t>
+  </si>
+  <si>
+    <t>size/size_96.png</t>
+  </si>
+  <si>
+    <t>size/size_97.png</t>
+  </si>
+  <si>
+    <t>size/size_98.png</t>
+  </si>
+  <si>
+    <t>size/size_99.png</t>
+  </si>
+  <si>
+    <t>size/size_100.png</t>
+  </si>
+  <si>
+    <t>size/size_101.png</t>
+  </si>
+  <si>
+    <t>size/size_102.png</t>
+  </si>
+  <si>
+    <t>size/size_103.png</t>
+  </si>
+  <si>
+    <t>size/size_104.png</t>
+  </si>
+  <si>
+    <t>size/size_105.png</t>
   </si>
   <si>
     <t>Could you identify and locate the apple with the largest size in the picture?</t>

--- a/Benchmark/OEQ_Benchmark/size.xlsx
+++ b/Benchmark/OEQ_Benchmark/size.xlsx
@@ -25,322 +25,322 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>size/size_0.png</t>
-  </si>
-  <si>
-    <t>size/size_1.png</t>
-  </si>
-  <si>
-    <t>size/size_2.png</t>
-  </si>
-  <si>
-    <t>size/size_3.png</t>
-  </si>
-  <si>
-    <t>size/size_4.png</t>
-  </si>
-  <si>
-    <t>size/size_5.png</t>
-  </si>
-  <si>
-    <t>size/size_6.png</t>
-  </si>
-  <si>
-    <t>size/size_7.png</t>
-  </si>
-  <si>
-    <t>size/size_8.png</t>
-  </si>
-  <si>
-    <t>size/size_9.png</t>
-  </si>
-  <si>
-    <t>size/size_10.png</t>
-  </si>
-  <si>
-    <t>size/size_11.png</t>
-  </si>
-  <si>
-    <t>size/size_12.png</t>
-  </si>
-  <si>
-    <t>size/size_13.png</t>
-  </si>
-  <si>
-    <t>size/size_14.png</t>
-  </si>
-  <si>
-    <t>size/size_15.png</t>
-  </si>
-  <si>
-    <t>size/size_16.png</t>
-  </si>
-  <si>
-    <t>size/size_17.png</t>
-  </si>
-  <si>
-    <t>size/size_18.png</t>
-  </si>
-  <si>
-    <t>size/size_19.png</t>
-  </si>
-  <si>
-    <t>size/size_20.png</t>
-  </si>
-  <si>
-    <t>size/size_21.png</t>
-  </si>
-  <si>
-    <t>size/size_22.png</t>
-  </si>
-  <si>
-    <t>size/size_23.png</t>
-  </si>
-  <si>
-    <t>size/size_24.png</t>
-  </si>
-  <si>
-    <t>size/size_25.png</t>
-  </si>
-  <si>
-    <t>size/size_26.png</t>
-  </si>
-  <si>
-    <t>size/size_27.png</t>
-  </si>
-  <si>
-    <t>size/size_28.png</t>
-  </si>
-  <si>
-    <t>size/size_29.png</t>
-  </si>
-  <si>
-    <t>size/size_30.png</t>
-  </si>
-  <si>
-    <t>size/size_31.png</t>
-  </si>
-  <si>
-    <t>size/size_32.png</t>
-  </si>
-  <si>
-    <t>size/size_33.png</t>
-  </si>
-  <si>
-    <t>size/size_34.png</t>
-  </si>
-  <si>
-    <t>size/size_35.png</t>
-  </si>
-  <si>
-    <t>size/size_36.png</t>
-  </si>
-  <si>
-    <t>size/size_37.png</t>
-  </si>
-  <si>
-    <t>size/size_38.png</t>
-  </si>
-  <si>
-    <t>size/size_39.png</t>
-  </si>
-  <si>
-    <t>size/size_40.png</t>
-  </si>
-  <si>
-    <t>size/size_41.png</t>
-  </si>
-  <si>
-    <t>size/size_42.png</t>
-  </si>
-  <si>
-    <t>size/size_43.png</t>
-  </si>
-  <si>
-    <t>size/size_44.png</t>
-  </si>
-  <si>
-    <t>size/size_45.png</t>
-  </si>
-  <si>
-    <t>size/size_46.png</t>
-  </si>
-  <si>
-    <t>size/size_47.png</t>
-  </si>
-  <si>
-    <t>size/size_48.png</t>
-  </si>
-  <si>
-    <t>size/size_49.png</t>
-  </si>
-  <si>
-    <t>size/size_50.png</t>
-  </si>
-  <si>
-    <t>size/size_51.png</t>
-  </si>
-  <si>
-    <t>size/size_52.png</t>
-  </si>
-  <si>
-    <t>size/size_53.png</t>
-  </si>
-  <si>
-    <t>size/size_54.png</t>
-  </si>
-  <si>
-    <t>size/size_55.png</t>
-  </si>
-  <si>
-    <t>size/size_56.png</t>
-  </si>
-  <si>
-    <t>size/size_57.png</t>
-  </si>
-  <si>
-    <t>size/size_58.png</t>
-  </si>
-  <si>
-    <t>size/size_59.png</t>
-  </si>
-  <si>
-    <t>size/size_60.png</t>
-  </si>
-  <si>
-    <t>size/size_61.png</t>
-  </si>
-  <si>
-    <t>size/size_62.png</t>
-  </si>
-  <si>
-    <t>size/size_63.png</t>
-  </si>
-  <si>
-    <t>size/size_64.png</t>
-  </si>
-  <si>
-    <t>size/size_65.png</t>
-  </si>
-  <si>
-    <t>size/size_66.png</t>
-  </si>
-  <si>
-    <t>size/size_67.png</t>
-  </si>
-  <si>
-    <t>size/size_68.png</t>
-  </si>
-  <si>
-    <t>size/size_69.png</t>
-  </si>
-  <si>
-    <t>size/size_70.png</t>
-  </si>
-  <si>
-    <t>size/size_71.png</t>
-  </si>
-  <si>
-    <t>size/size_72.png</t>
-  </si>
-  <si>
-    <t>size/size_73.png</t>
-  </si>
-  <si>
-    <t>size/size_74.png</t>
-  </si>
-  <si>
-    <t>size/size_75.png</t>
-  </si>
-  <si>
-    <t>size/size_76.png</t>
-  </si>
-  <si>
-    <t>size/size_77.png</t>
-  </si>
-  <si>
-    <t>size/size_78.png</t>
-  </si>
-  <si>
-    <t>size/size_79.png</t>
-  </si>
-  <si>
-    <t>size/size_80.png</t>
-  </si>
-  <si>
-    <t>size/size_81.png</t>
-  </si>
-  <si>
-    <t>size/size_82.png</t>
-  </si>
-  <si>
-    <t>size/size_83.png</t>
-  </si>
-  <si>
-    <t>size/size_84.png</t>
-  </si>
-  <si>
-    <t>size/size_85.png</t>
-  </si>
-  <si>
-    <t>size/size_86.png</t>
-  </si>
-  <si>
-    <t>size/size_87.png</t>
-  </si>
-  <si>
-    <t>size/size_88.png</t>
-  </si>
-  <si>
-    <t>size/size_89.png</t>
-  </si>
-  <si>
-    <t>size/size_90.png</t>
-  </si>
-  <si>
-    <t>size/size_91.png</t>
-  </si>
-  <si>
-    <t>size/size_92.png</t>
-  </si>
-  <si>
-    <t>size/size_93.png</t>
-  </si>
-  <si>
-    <t>size/size_94.png</t>
-  </si>
-  <si>
-    <t>size/size_95.png</t>
-  </si>
-  <si>
-    <t>size/size_96.png</t>
-  </si>
-  <si>
-    <t>size/size_97.png</t>
-  </si>
-  <si>
-    <t>size/size_98.png</t>
-  </si>
-  <si>
-    <t>size/size_99.png</t>
-  </si>
-  <si>
-    <t>size/size_100.png</t>
-  </si>
-  <si>
-    <t>size/size_101.png</t>
-  </si>
-  <si>
-    <t>size/size_102.png</t>
-  </si>
-  <si>
-    <t>size/size_103.png</t>
-  </si>
-  <si>
-    <t>size/size_104.png</t>
-  </si>
-  <si>
-    <t>size/size_105.png</t>
+    <t>size_0.png</t>
+  </si>
+  <si>
+    <t>size_1.png</t>
+  </si>
+  <si>
+    <t>size_2.png</t>
+  </si>
+  <si>
+    <t>size_3.png</t>
+  </si>
+  <si>
+    <t>size_4.png</t>
+  </si>
+  <si>
+    <t>size_5.png</t>
+  </si>
+  <si>
+    <t>size_6.png</t>
+  </si>
+  <si>
+    <t>size_7.png</t>
+  </si>
+  <si>
+    <t>size_8.png</t>
+  </si>
+  <si>
+    <t>size_9.png</t>
+  </si>
+  <si>
+    <t>size_10.png</t>
+  </si>
+  <si>
+    <t>size_11.png</t>
+  </si>
+  <si>
+    <t>size_12.png</t>
+  </si>
+  <si>
+    <t>size_13.png</t>
+  </si>
+  <si>
+    <t>size_14.png</t>
+  </si>
+  <si>
+    <t>size_15.png</t>
+  </si>
+  <si>
+    <t>size_16.png</t>
+  </si>
+  <si>
+    <t>size_17.png</t>
+  </si>
+  <si>
+    <t>size_18.png</t>
+  </si>
+  <si>
+    <t>size_19.png</t>
+  </si>
+  <si>
+    <t>size_20.png</t>
+  </si>
+  <si>
+    <t>size_21.png</t>
+  </si>
+  <si>
+    <t>size_22.png</t>
+  </si>
+  <si>
+    <t>size_23.png</t>
+  </si>
+  <si>
+    <t>size_24.png</t>
+  </si>
+  <si>
+    <t>size_25.png</t>
+  </si>
+  <si>
+    <t>size_26.png</t>
+  </si>
+  <si>
+    <t>size_27.png</t>
+  </si>
+  <si>
+    <t>size_28.png</t>
+  </si>
+  <si>
+    <t>size_29.png</t>
+  </si>
+  <si>
+    <t>size_30.png</t>
+  </si>
+  <si>
+    <t>size_31.png</t>
+  </si>
+  <si>
+    <t>size_32.png</t>
+  </si>
+  <si>
+    <t>size_33.png</t>
+  </si>
+  <si>
+    <t>size_34.png</t>
+  </si>
+  <si>
+    <t>size_35.png</t>
+  </si>
+  <si>
+    <t>size_36.png</t>
+  </si>
+  <si>
+    <t>size_37.png</t>
+  </si>
+  <si>
+    <t>size_38.png</t>
+  </si>
+  <si>
+    <t>size_39.png</t>
+  </si>
+  <si>
+    <t>size_40.png</t>
+  </si>
+  <si>
+    <t>size_41.png</t>
+  </si>
+  <si>
+    <t>size_42.png</t>
+  </si>
+  <si>
+    <t>size_43.png</t>
+  </si>
+  <si>
+    <t>size_44.png</t>
+  </si>
+  <si>
+    <t>size_45.png</t>
+  </si>
+  <si>
+    <t>size_46.png</t>
+  </si>
+  <si>
+    <t>size_47.png</t>
+  </si>
+  <si>
+    <t>size_48.png</t>
+  </si>
+  <si>
+    <t>size_49.png</t>
+  </si>
+  <si>
+    <t>size_50.png</t>
+  </si>
+  <si>
+    <t>size_51.png</t>
+  </si>
+  <si>
+    <t>size_52.png</t>
+  </si>
+  <si>
+    <t>size_53.png</t>
+  </si>
+  <si>
+    <t>size_54.png</t>
+  </si>
+  <si>
+    <t>size_55.png</t>
+  </si>
+  <si>
+    <t>size_56.png</t>
+  </si>
+  <si>
+    <t>size_57.png</t>
+  </si>
+  <si>
+    <t>size_58.png</t>
+  </si>
+  <si>
+    <t>size_59.png</t>
+  </si>
+  <si>
+    <t>size_60.png</t>
+  </si>
+  <si>
+    <t>size_61.png</t>
+  </si>
+  <si>
+    <t>size_62.png</t>
+  </si>
+  <si>
+    <t>size_63.png</t>
+  </si>
+  <si>
+    <t>size_64.png</t>
+  </si>
+  <si>
+    <t>size_65.png</t>
+  </si>
+  <si>
+    <t>size_66.png</t>
+  </si>
+  <si>
+    <t>size_67.png</t>
+  </si>
+  <si>
+    <t>size_68.png</t>
+  </si>
+  <si>
+    <t>size_69.png</t>
+  </si>
+  <si>
+    <t>size_70.png</t>
+  </si>
+  <si>
+    <t>size_71.png</t>
+  </si>
+  <si>
+    <t>size_72.png</t>
+  </si>
+  <si>
+    <t>size_73.png</t>
+  </si>
+  <si>
+    <t>size_74.png</t>
+  </si>
+  <si>
+    <t>size_75.png</t>
+  </si>
+  <si>
+    <t>size_76.png</t>
+  </si>
+  <si>
+    <t>size_77.png</t>
+  </si>
+  <si>
+    <t>size_78.png</t>
+  </si>
+  <si>
+    <t>size_79.png</t>
+  </si>
+  <si>
+    <t>size_80.png</t>
+  </si>
+  <si>
+    <t>size_81.png</t>
+  </si>
+  <si>
+    <t>size_82.png</t>
+  </si>
+  <si>
+    <t>size_83.png</t>
+  </si>
+  <si>
+    <t>size_84.png</t>
+  </si>
+  <si>
+    <t>size_85.png</t>
+  </si>
+  <si>
+    <t>size_86.png</t>
+  </si>
+  <si>
+    <t>size_87.png</t>
+  </si>
+  <si>
+    <t>size_88.png</t>
+  </si>
+  <si>
+    <t>size_89.png</t>
+  </si>
+  <si>
+    <t>size_90.png</t>
+  </si>
+  <si>
+    <t>size_91.png</t>
+  </si>
+  <si>
+    <t>size_92.png</t>
+  </si>
+  <si>
+    <t>size_93.png</t>
+  </si>
+  <si>
+    <t>size_94.png</t>
+  </si>
+  <si>
+    <t>size_95.png</t>
+  </si>
+  <si>
+    <t>size_96.png</t>
+  </si>
+  <si>
+    <t>size_97.png</t>
+  </si>
+  <si>
+    <t>size_98.png</t>
+  </si>
+  <si>
+    <t>size_99.png</t>
+  </si>
+  <si>
+    <t>size_100.png</t>
+  </si>
+  <si>
+    <t>size_101.png</t>
+  </si>
+  <si>
+    <t>size_102.png</t>
+  </si>
+  <si>
+    <t>size_103.png</t>
+  </si>
+  <si>
+    <t>size_104.png</t>
+  </si>
+  <si>
+    <t>size_105.png</t>
   </si>
   <si>
     <t>Could you identify and locate the apple with the largest size in the picture?</t>
